--- a/Assets/03_MM_test_frame.xlsx
+++ b/Assets/03_MM_test_frame.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://masseyhighschoolnz-my.sharepoint.com/personal/jgottschalk_masseyhigh_school_nz/Documents/Projects/02_Tutorial_Answers/12_Advanced_Programming_Revisited/Mega_Movie_Fundraiser/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D83AAF0D-519A-48D5-9B58-10687C701D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{D83AAF0D-519A-48D5-9B58-10687C701D31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81FDF4EE-1CFD-476E-91D7-267DDBA8AEC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{294398F7-76DE-4F45-90C3-3BEF8169EDCE}"/>
   </bookViews>
@@ -34,25 +34,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Pita 
-Chips</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Orange 
-Juice</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Popcorn</t>
   </si>
   <si>
@@ -63,15 +52,20 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Pita Chips</t>
+  </si>
+  <si>
+    <t>Orange Juice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,12 +87,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -129,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -137,9 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA121ACB-1FA2-4359-8F31-C6B1A9E5FF38}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,65 +453,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.25</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="4"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L6" s="4"/>
+      <c r="L5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
